--- a/biology/Médecine/Samuel_Goldflam/Samuel_Goldflam.xlsx
+++ b/biology/Médecine/Samuel_Goldflam/Samuel_Goldflam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Wulfowicz Goldflam, né le 15 février 1852 à Varsovie et mort dans la même ville le 26 août 1932 est un neurologue juif polonais resté célèbre pour sa brillante analyse, en 1893, de la myasthénie, une maladie à laquelle son nom restera longtemps attaché à côté de celui de Wilhelm Erb (« maladie d'Erb-Goldflam »).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études secondaires et médicales dans sa ville natale de Varsovie où il obtient son diplôme de médecine en 1875, et commence à exercer à l'Hôpital du Saint-Esprit dans le service de médecine interne du professeur Wilhelm Lambl (1824-1895). Ce dernier devait s'illustrer en parasitologie en donnant son nom à l'espèce Giardia lamblia (anciennement Lamblia intestinalis), une variété d'amibe responsable de la lambliase (ou giardiase). Mais il négligea d'offrir à Goldflam toute l'aide et la sollicitude qu'un élève pourrait attendre de son maître, et le jeune médecin dut en grande partie acquérir par lui-même des connaissances nouvelles. En effet, son poste à la clinique lui fournissait matière à maintes recherches, à une époque où médecine interne et neurologie n'étaient pas encore deux disciplines distinctes. En 1882, il part compléter sa formation dans le domaine des maladies du système nerveux auprès de deux fameux neurologues, Westphal (1833-1890) et Charcot (1825-1893), puis revient à Varsovie pour y enseigner la neurologie à la manière de ces grands maîtres. Après avoir passé un certain temps à l'hôpital du Saint-Esprit, il ouvre à Varsovie sa propre clinique au 10 de la rue Graniczna, à l'intention des patients défavorisés. Il dirigera cette clinique durant 40 ans.
 Pendant la première Guerre mondiale il est volontaire à l'hôpital juif avec son ami Edward Flatau (1869-1932), lui aussi neurologue. Il fut l'un des premiers, en 1918, à étudier les effets pathologiques spécifiques de la malnutrition sur les os et les articulations sous le nom d'Osteoarthropathia dysalimentaria. Toutefois, ses principaux sujets d'intérêt furent l'interprétation des réflexes tendineux, la neurosyphilis et les réflexes oculaires.
